--- a/src/cards-presentation/cards-presentation.xlsx
+++ b/src/cards-presentation/cards-presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shtyrov\Perikova\RFS\Парадигма\Проверочные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantinp/projects/python-dangerzone/src/cards-presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5BDB1B-9AAC-49CB-9187-B329D7991DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E993B-D23E-A54F-A82A-751813AC4410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22700" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>seq_1</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>ZF_2</t>
+  </si>
+  <si>
+    <t>pic</t>
   </si>
 </sst>
 </file>
@@ -504,16 +507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="23" width="7.1328125" customWidth="1"/>
+    <col min="2" max="23" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -712,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -813,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -914,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>

--- a/src/cards-presentation/cards-presentation.xlsx
+++ b/src/cards-presentation/cards-presentation.xlsx
@@ -8,17 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantinp/projects/python-dangerzone/src/cards-presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E993B-D23E-A54F-A82A-751813AC4410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3BE661-AF44-6D4A-A085-C932ACBE4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22700" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -507,11 +517,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="23" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="23" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
